--- a/databases/FavProducts.xlsx
+++ b/databases/FavProducts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">ProductID</t>
   </si>
   <si>
-    <t xml:space="preserve">API</t>
+    <t xml:space="preserve">APIID</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -37,115 +37,55 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">ACC</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambroxol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benproperin</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Bromhexin</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Cineol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dextrometorphan</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Dropropizin</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Efeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eibisch</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Eucalyptus</t>
-  </si>
-  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">Guaifenesin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOM</t>
-  </si>
-  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">Pelargonium</t>
-  </si>
-  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Pentoxyverin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spitzwegerich</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Thymian</t>
-  </si>
-  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Tyloxapol</t>
-  </si>
-  <si>
     <t xml:space="preserve">153</t>
   </si>
   <si>
-    <t xml:space="preserve">Thymian_Eucalyptus</t>
-  </si>
-  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">Thymian_Primel</t>
-  </si>
-  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymian_Efeu</t>
   </si>
 </sst>
 </file>
@@ -155,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,6 +125,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -249,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,6 +210,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,10 +296,10 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.38"/>
   </cols>
@@ -365,224 +315,224 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>170</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>184</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>105</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>127</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>173</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>165</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
